--- a/Scenario_tested.xlsx
+++ b/Scenario_tested.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin.tong\Documents\Rprojects\Dental_Reform_Modelling_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8170A5-CE43-45A7-BF3C-0F90AAB624E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484CF1E6-1A6C-4F12-9D74-FF0F5AB97AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="780" windowWidth="17025" windowHeight="12060" firstSheet="4" activeTab="7" xr2:uid="{1A21164D-AF9B-4894-B7FB-A88D3655CB9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13230" firstSheet="1" activeTab="8" xr2:uid="{1A21164D-AF9B-4894-B7FB-A88D3655CB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="All policies" sheetId="1" r:id="rId1"/>
@@ -21,29 +21,19 @@
     <sheet name="Urgent Care" sheetId="6" r:id="rId6"/>
     <sheet name="Everything else" sheetId="7" r:id="rId7"/>
     <sheet name="All high needs" sheetId="8" r:id="rId8"/>
+    <sheet name="Testing new segment" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="45">
   <si>
     <t xml:space="preserve">Do not change </t>
   </si>
@@ -170,6 +160,15 @@
   <si>
     <t>All high needs scenario</t>
   </si>
+  <si>
+    <t>test_seg</t>
+  </si>
+  <si>
+    <t>test new segment</t>
+  </si>
+  <si>
+    <t>All policies scenario plus new segment</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -396,27 +395,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -448,6 +457,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -787,7 +816,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,474 +831,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>527.59875334869207</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>68.364610610740684</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>238</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>4051516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>75</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1308,474 +1337,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>238</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>3351516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1814,474 +1843,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>527.59875334869207</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>68.364610610740627</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>102</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>3351516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2320,474 +2349,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>102</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>3351516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2826,474 +2855,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>102</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>3351516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3332,474 +3361,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>102</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>4051516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>75</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3838,474 +3867,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>102</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>3351516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4327,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2E9075-9A73-498B-AAD9-9F5FCF16E7EF}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,474 +4373,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1271611.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>788463</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>372594</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>341.9685094231254</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>70.27856274228786</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>102</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E9" s="15">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8036346</v>
       </c>
-      <c r="E10" s="15">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>2562617</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3351516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>1271611.5</v>
       </c>
-      <c r="E14" s="27">
-        <v>34</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24">
         <v>22.978595299386349</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>788463</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>372594</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>527.59875334869207</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>68.364610610740627</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>6252165.4483737033</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>167.7749338086264</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>67.292574445225725</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>318147.55162629666</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>238</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <v>51.678315601212084</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>10691592.5</v>
       </c>
-      <c r="E19" s="15">
-        <v>34</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="11">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
         <v>22.978595299386349</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>8036346</v>
       </c>
-      <c r="E20" s="15">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2562617</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>129.87275663901394</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>3351516</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="18">
         <v>14.908666022084338</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4827,4 +4856,567 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E0C072-C8AD-495F-A736-10B2B7179D4C}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="9" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1271611.5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12">
+        <v>22.978595299386349</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10">
+        <v>788463</v>
+      </c>
+      <c r="E5" s="11">
+        <v>167.7749338086264</v>
+      </c>
+      <c r="F5" s="12">
+        <v>67.292574445225725</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10">
+        <v>372594</v>
+      </c>
+      <c r="E6" s="11">
+        <v>341.9685094231254</v>
+      </c>
+      <c r="F6" s="12">
+        <v>70.27856274228786</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10">
+        <v>6252165.4483737033</v>
+      </c>
+      <c r="E7" s="11">
+        <v>167.7749338086264</v>
+      </c>
+      <c r="F7" s="12">
+        <v>67.292574445225725</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10">
+        <v>318147.55162629666</v>
+      </c>
+      <c r="E8" s="11">
+        <v>102</v>
+      </c>
+      <c r="F8" s="12">
+        <v>51.678315601212084</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10">
+        <v>10691592.5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12">
+        <v>22.978595299386349</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10">
+        <v>8036346</v>
+      </c>
+      <c r="E10" s="11">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2562617</v>
+      </c>
+      <c r="E11" s="11">
+        <v>129.87275663901394</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3351516</v>
+      </c>
+      <c r="E12" s="17">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F12" s="18">
+        <v>14.908666022084338</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>3</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1271611.5</v>
+      </c>
+      <c r="E15" s="23">
+        <v>34</v>
+      </c>
+      <c r="F15" s="24">
+        <v>22.978595299386349</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10">
+        <v>788463</v>
+      </c>
+      <c r="E16" s="11">
+        <v>167.7749338086264</v>
+      </c>
+      <c r="F16" s="12">
+        <v>67.292574445225725</v>
+      </c>
+      <c r="G16" s="13" t="str">
+        <f>G15</f>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="10">
+        <v>372594</v>
+      </c>
+      <c r="E17" s="11">
+        <v>527.59875334869207</v>
+      </c>
+      <c r="F17" s="12">
+        <v>68.364610610740684</v>
+      </c>
+      <c r="G17" s="13" t="str">
+        <f t="shared" ref="G17:G24" si="0">G16</f>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10">
+        <v>6252165.4483737033</v>
+      </c>
+      <c r="E18" s="11">
+        <v>167.7749338086264</v>
+      </c>
+      <c r="F18" s="12">
+        <v>67.292574445225725</v>
+      </c>
+      <c r="G18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10">
+        <v>318147.55162629666</v>
+      </c>
+      <c r="E19" s="11">
+        <v>238</v>
+      </c>
+      <c r="F19" s="12">
+        <v>51.678315601212084</v>
+      </c>
+      <c r="G19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10691592.5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
+        <v>22.978595299386349</v>
+      </c>
+      <c r="G20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10">
+        <v>8036346</v>
+      </c>
+      <c r="E21" s="11">
+        <v>34</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2562617</v>
+      </c>
+      <c r="E22" s="11">
+        <v>129.87275663901394</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="16">
+        <v>4051516</v>
+      </c>
+      <c r="E23" s="17">
+        <v>75</v>
+      </c>
+      <c r="F23" s="18">
+        <v>14.908666022084338</v>
+      </c>
+      <c r="G23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="str">
+        <f>B13</f>
+        <v>test_seg</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:G24" si="1">C13</f>
+        <v>test new segment</v>
+      </c>
+      <c r="D24" s="34">
+        <f>D13</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>All policies scenario plus new segment</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="a0NQKJrAiC9JySWa//J4XqLyu0XY6b00OXCb9uwrMxhxnPuHIecVfeXj4q8bQ5Sgl4b0n/fuygU9vJJHGQIobg==" saltValue="iKASTgUY+6pKSerUGSuErw==" spinCount="100000" sqref="A1:C23" name="Range1"/>
+  </protectedRanges>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>